--- a/biology/Botanique/Courge_musquée/Courge_musquée.xlsx
+++ b/biology/Botanique/Courge_musquée/Courge_musquée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita moschata
 La courge musquée (Cucurbita moschata Duchesne) est une espèce de plante à fleurs de la famille des Cucurbitacées, largement cultivée comme plante potagère pour son fruit comestible à maturité. C'est l'une des cinq espèces de courges les plus couramment cultivées.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle à longues tiges, rampantes, qui s'accrochent par des vrilles à tout support. Toute la plante est couverte de poils souples, non épineux.
 Les tiges produisent des racines adventices à chaque entrenœud. Si la plante grimpe sur un support, ces racines sont aériennes et peuvent atteindre plus d'un mètre de long en climat chaud et humide.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du nord de l'Amérique du Sud[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du nord de l'Amérique du Sud.
 Elle est largement cultivée dans tous les pays chauds et tempérés.
 Elle n'a été introduite en Europe qu'après les voyages de Christophe Colomb en Amérique, comme toutes les courges (Cucurbita), d'ailleurs souvent non différenciées entre elles et même parfois confondues avec les gourdes (Lagenaria) déjà connues en Europe depuis l'Antiquité. C'est à Charles Naudin que l'on doit la distinction entre les différentes espèces, qu'il fit vers 1860.
 Son introduction en France est assez tardive.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Principales variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Courge musquée de Provence
 Courge longue de Nice
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les courges musquées ont besoin de chaleur. Elles sont semées (deux à trois graines en godets à 3,5 centimètres de profondeur) de mars à mai, avant d'être transplantées au jardin après les dernières gelées (mi-mai). Elles ont besoin d'un sol riche préparé sur une profondeur de trente centimètres avec une fumure complète (terreau et compost). Elles sont parfois plantées ou semées directement dans une couche de fumier composté.
 Il convient d'éclaircir les semis en conservant le plant le plus vigoureux. La plante à très forte croissance (coureuse) peut être étêtée après la deuxième feuille pour obtenir deux bras. Dès l'apparition des fruits, on coupe les rameaux à deux feuilles au-dessus de chaque fruit. Densité de plantation : 90 × 180 centimètres.
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Courge_musqu%C3%A9e</t>
+          <t>Courge_musquée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,10 +684,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que connue dès le XVIe siècle en Europe, les recettes de l'époque moderne utilisant des courges sont très peu nombreuses
-[2].
+.
 Les courges musquées se récoltent à complète maturité et se consomment cuites. On peut les préparer de très nombreuses manières comme légume ou comme dessert : en soupe, en purée, en gratin, en flan, en tarte, en tourte, en confiture… Elles ont un goût musqué assez fin. Un potage de courge doubeurre (butternut), finement mixé, dégage un parfum doux et très agréable.
 Les courges musquées sont très riches en vitamine A.
 </t>
